--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -43,10 +43,10 @@
     <t>06/02/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01:38:31</t>
+    <t xml:space="preserve"> 18:56:47</t>
   </si>
   <si>
-    <t>b'25</t>
+    <t>25</t>
   </si>
   <si>
     <t>30</t>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>77\r\n'</t>
   </si>
 </sst>
 </file>
@@ -452,6 +449,30 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
@@ -479,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -508,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -537,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -566,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -595,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -624,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -653,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -682,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -711,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -740,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -769,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -798,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -827,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -856,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -885,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -914,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -943,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -972,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1001,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1030,7 +1051,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1059,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1088,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1117,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1146,7 +1167,7 @@
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1175,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1204,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1233,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1262,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1291,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -46,10 +46,22 @@
     <t>Sensor_7</t>
   </si>
   <si>
-    <t>06/04/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10:54:21</t>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:36:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:37:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:37:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:37:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:37:07</t>
   </si>
   <si>
     <t>Error sensor 1</t>
@@ -480,25 +492,25 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,28 +524,28 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,28 +559,28 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +594,28 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,28 +629,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Sensor_1</t>
-  </si>
-  <si>
-    <t>Sensor_2</t>
-  </si>
-  <si>
-    <t>Sensor_3</t>
-  </si>
-  <si>
-    <t>Sensor_4</t>
-  </si>
-  <si>
-    <t>Sensor_5</t>
-  </si>
-  <si>
-    <t>Sensor_6</t>
-  </si>
-  <si>
-    <t>Sensor_7</t>
-  </si>
-  <si>
-    <t>06/07/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:36:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:37:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:37:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:37:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:37:07</t>
-  </si>
-  <si>
-    <t>Error sensor 1</t>
-  </si>
-  <si>
-    <t>Error sensor 2</t>
-  </si>
-  <si>
-    <t>Error sensor 3</t>
-  </si>
-  <si>
-    <t>Error sensor 4</t>
-  </si>
-  <si>
-    <t>Error sensor 5</t>
-  </si>
-  <si>
-    <t>Error sensor 6</t>
-  </si>
-  <si>
-    <t>Error sensor 7</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,221 +420,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sensor_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sensor_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sensor_3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sensor_4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sensor_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15:08:42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Error sensor 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Error sensor 2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Error sensor 3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Error sensor 4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Error sensor 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15:08:45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Error sensor 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Error sensor 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Error sensor 3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Error sensor 4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Error sensor 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15:08:47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Error sensor 1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Error sensor 2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Error sensor 3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Error sensor 4</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Error sensor 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15:08:49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Error sensor 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Error sensor 2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Error sensor 3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Error sensor 4</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Error sensor 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15:08:51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Error sensor 1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Error sensor 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Error sensor 3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Error sensor 4</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Error sensor 5</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>